--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/150.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/150.xlsx
@@ -479,13 +479,13 @@
         <v>0.01669156911940639</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.020523372328576</v>
+        <v>-1.918818126805732</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2963052786772115</v>
+        <v>0.2538036143638503</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.09457875981099485</v>
+        <v>-0.0949266180368023</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.04527251072992471</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.076792194886393</v>
+        <v>-1.967171994212089</v>
       </c>
       <c r="F3" t="n">
-        <v>0.291088979309221</v>
+        <v>0.2416868151680776</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.07954215514520938</v>
+        <v>-0.08858961705444574</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.07867704226081711</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.251177773335296</v>
+        <v>-2.147488476710053</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2719504808133259</v>
+        <v>0.2184306826508599</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.04334915947002137</v>
+        <v>-0.05976617890518754</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.1037961309994802</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.410370132215845</v>
+        <v>-2.30191155765306</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3294619914674105</v>
+        <v>0.2747050142756021</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.08177411425921376</v>
+        <v>-0.09416636680121407</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.1121579815135439</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.442087404519614</v>
+        <v>-2.335098176806564</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3904095858632944</v>
+        <v>0.3360901859872076</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1178931310357006</v>
+        <v>-0.1275182579624543</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.1007843926130203</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.459397679806119</v>
+        <v>-2.340024069646674</v>
       </c>
       <c r="F7" t="n">
-        <v>0.480654398163948</v>
+        <v>0.4385950332236723</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1212568098979202</v>
+        <v>-0.1303121419027631</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.07490651056784006</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.293425233560567</v>
+        <v>-2.179261626692629</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6031477142218101</v>
+        <v>0.5486693384144721</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1488383469604722</v>
+        <v>-0.1488147366736527</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.04663470038276996</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.852750248208257</v>
+        <v>-1.747973304370194</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6480717939628531</v>
+        <v>0.5985122279095796</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1518919440557955</v>
+        <v>-0.1456257739338974</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.03123040544035807</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.265032757572717</v>
+        <v>-1.187520185944265</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5817504982868485</v>
+        <v>0.5450396503207526</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1541396433610129</v>
+        <v>-0.1377446601935449</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.04461418322416107</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.551173374556141</v>
+        <v>-0.5038788220184192</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4619330147351976</v>
+        <v>0.4334558607926256</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1351254923757006</v>
+        <v>-0.1140729866283039</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.1038598260952738</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2667751059424893</v>
+        <v>0.2942574798003992</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2736110709862981</v>
+        <v>0.26217739608917</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.02633243874963963</v>
+        <v>-0.002888997956987187</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.2174398070354238</v>
       </c>
       <c r="E13" t="n">
-        <v>1.062086043438573</v>
+        <v>1.087739407077531</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.06534135463283458</v>
+        <v>-0.05339612352128366</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04473452457708642</v>
+        <v>0.07128822715342903</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.3852876985696623</v>
       </c>
       <c r="E14" t="n">
-        <v>1.840254338684571</v>
+        <v>1.87170481474728</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.4598566552338816</v>
+        <v>-0.428801257970619</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2068537720136934</v>
+        <v>0.2331776677983261</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.5963355082138373</v>
       </c>
       <c r="E15" t="n">
-        <v>2.610598184878583</v>
+        <v>2.637427340801153</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.9356007866087719</v>
+        <v>-0.8690441750741329</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3681576775454665</v>
+        <v>0.3915145472864475</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.8272269102487957</v>
       </c>
       <c r="E16" t="n">
-        <v>3.21310122413006</v>
+        <v>3.261217414649101</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.415579816429522</v>
+        <v>-1.323843621011435</v>
       </c>
       <c r="G16" t="n">
-        <v>0.552705123441487</v>
+        <v>0.5680061633196509</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.057434867550221</v>
       </c>
       <c r="E17" t="n">
-        <v>3.937203536578501</v>
+        <v>3.990871292538369</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.957650752547341</v>
+        <v>-1.826134371876623</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7511243998535304</v>
+        <v>0.7651599283581686</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.274122378055287</v>
       </c>
       <c r="E18" t="n">
-        <v>4.453291352051449</v>
+        <v>4.513697483869605</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.413309612924874</v>
+        <v>-2.263754186114489</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9788220059408879</v>
+        <v>0.9874570748403435</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.475621185849544</v>
       </c>
       <c r="E19" t="n">
-        <v>4.922315995797507</v>
+        <v>4.98260879823893</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.861748447593</v>
+        <v>-2.682354340300118</v>
       </c>
       <c r="G19" t="n">
-        <v>1.237626951922511</v>
+        <v>1.226207443197474</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.66195497770836</v>
       </c>
       <c r="E20" t="n">
-        <v>5.246663097990091</v>
+        <v>5.315073117040061</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.291232944002424</v>
+        <v>-3.088184477354635</v>
       </c>
       <c r="G20" t="n">
-        <v>1.437108691241432</v>
+        <v>1.417740385953827</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.830297141031082</v>
       </c>
       <c r="E21" t="n">
-        <v>5.476743769027097</v>
+        <v>5.562203563198997</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.661004664016624</v>
+        <v>-3.449255019666285</v>
       </c>
       <c r="G21" t="n">
-        <v>1.631618104156165</v>
+        <v>1.60025734718337</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.980428102481921</v>
       </c>
       <c r="E22" t="n">
-        <v>5.655032914896826</v>
+        <v>5.756535111953022</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.951962885598617</v>
+        <v>-3.738998885496195</v>
       </c>
       <c r="G22" t="n">
-        <v>1.808101850093762</v>
+        <v>1.765749717596924</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.110794463670537</v>
       </c>
       <c r="E23" t="n">
-        <v>5.874885609683621</v>
+        <v>5.971132156893794</v>
       </c>
       <c r="F23" t="n">
-        <v>-4.145046237189451</v>
+        <v>-3.935785904079449</v>
       </c>
       <c r="G23" t="n">
-        <v>1.884674732306798</v>
+        <v>1.841370318241573</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.220631757288936</v>
       </c>
       <c r="E24" t="n">
-        <v>5.913636386430922</v>
+        <v>6.00652397683624</v>
       </c>
       <c r="F24" t="n">
-        <v>-4.364805277838529</v>
+        <v>-4.146489612723684</v>
       </c>
       <c r="G24" t="n">
-        <v>2.030822407719567</v>
+        <v>1.974771586810049</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.307993546004455</v>
       </c>
       <c r="E25" t="n">
-        <v>5.87697748109583</v>
+        <v>5.972284338890586</v>
       </c>
       <c r="F25" t="n">
-        <v>-4.393377659937939</v>
+        <v>-4.186003001735256</v>
       </c>
       <c r="G25" t="n">
-        <v>2.072600023237129</v>
+        <v>2.01307376810778</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.368175788218698</v>
       </c>
       <c r="E26" t="n">
-        <v>5.84902447552065</v>
+        <v>5.923840752394315</v>
       </c>
       <c r="F26" t="n">
-        <v>-4.423488645728422</v>
+        <v>-4.230066093016947</v>
       </c>
       <c r="G26" t="n">
-        <v>2.102822764385224</v>
+        <v>2.047012768401265</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.400367618316405</v>
       </c>
       <c r="E27" t="n">
-        <v>5.814666786140899</v>
+        <v>5.889083262157754</v>
       </c>
       <c r="F27" t="n">
-        <v>-4.415993953682348</v>
+        <v>-4.237315238080098</v>
       </c>
       <c r="G27" t="n">
-        <v>2.136591770613609</v>
+        <v>2.080555115876183</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.403831104955673</v>
       </c>
       <c r="E28" t="n">
-        <v>5.599666792305074</v>
+        <v>5.671879641552107</v>
       </c>
       <c r="F28" t="n">
-        <v>-4.326207967955554</v>
+        <v>-4.163024683592948</v>
       </c>
       <c r="G28" t="n">
-        <v>2.098527266203194</v>
+        <v>2.048456143935498</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.383121236682194</v>
       </c>
       <c r="E29" t="n">
-        <v>5.396952017711001</v>
+        <v>5.475490849806542</v>
       </c>
       <c r="F29" t="n">
-        <v>-4.13886191606186</v>
+        <v>-3.998093450996137</v>
       </c>
       <c r="G29" t="n">
-        <v>2.060733493081643</v>
+        <v>2.001802217180146</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.342978841786481</v>
       </c>
       <c r="E30" t="n">
-        <v>5.15369995466695</v>
+        <v>5.239956202514228</v>
       </c>
       <c r="F30" t="n">
-        <v>-4.018214924433284</v>
+        <v>-3.886842566512165</v>
       </c>
       <c r="G30" t="n">
-        <v>1.951797203715544</v>
+        <v>1.90405248170913</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.286392713229696</v>
       </c>
       <c r="E31" t="n">
-        <v>4.896365142544623</v>
+        <v>4.978618659766433</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.871501389146408</v>
+        <v>-3.75501531706499</v>
       </c>
       <c r="G31" t="n">
-        <v>1.840819411549118</v>
+        <v>1.796872797682403</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.2173985831623</v>
       </c>
       <c r="E32" t="n">
-        <v>4.646881537799342</v>
+        <v>4.723792834123458</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.716429025315864</v>
+        <v>-3.610062322165288</v>
       </c>
       <c r="G32" t="n">
-        <v>1.726583399801599</v>
+        <v>1.690384108049926</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.134761632542277</v>
       </c>
       <c r="E33" t="n">
-        <v>4.378852839766897</v>
+        <v>4.446908704514575</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.575243445182996</v>
+        <v>-3.466148179885645</v>
       </c>
       <c r="G33" t="n">
-        <v>1.608130590828116</v>
+        <v>1.568468457009581</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>2.041343476766619</v>
       </c>
       <c r="E34" t="n">
-        <v>4.041912010584786</v>
+        <v>4.110196108105053</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.446751542253857</v>
+        <v>-3.333601603700036</v>
       </c>
       <c r="G34" t="n">
-        <v>1.478359010353359</v>
+        <v>1.446902238214165</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.939243317868083</v>
       </c>
       <c r="E35" t="n">
-        <v>3.712318702660908</v>
+        <v>3.763852088692292</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.303424509106458</v>
+        <v>-3.207883909472189</v>
       </c>
       <c r="G35" t="n">
-        <v>1.344285635620088</v>
+        <v>1.313069688406453</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.831463651119399</v>
       </c>
       <c r="E36" t="n">
-        <v>3.419132457012714</v>
+        <v>3.461379130228424</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.207387306439418</v>
+        <v>-3.108758481289157</v>
       </c>
       <c r="G36" t="n">
-        <v>1.237743429337487</v>
+        <v>1.194941127371957</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.722623618894015</v>
       </c>
       <c r="E37" t="n">
-        <v>3.120363165541266</v>
+        <v>3.157426593790534</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.094726887832322</v>
+        <v>-2.985844115116347</v>
       </c>
       <c r="G37" t="n">
-        <v>1.140846812230217</v>
+        <v>1.104194202971609</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.61341460280713</v>
       </c>
       <c r="E38" t="n">
-        <v>2.805518416783975</v>
+        <v>2.828834362027802</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.965706901487986</v>
+        <v>-2.869318692556896</v>
       </c>
       <c r="G38" t="n">
-        <v>1.039298968619503</v>
+        <v>0.994327668304821</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.505435048912051</v>
       </c>
       <c r="E39" t="n">
-        <v>2.471930248330235</v>
+        <v>2.489850456026244</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.815258218826263</v>
+        <v>-2.724359401580709</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9373072516165822</v>
+        <v>0.9009851863734476</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.398408750085536</v>
       </c>
       <c r="E40" t="n">
-        <v>2.193001467882783</v>
+        <v>2.218357341907816</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.682905246992574</v>
+        <v>-2.598068764392709</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8793880700100808</v>
+        <v>0.8445093803011789</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.291035253085657</v>
       </c>
       <c r="E41" t="n">
-        <v>1.981695696924651</v>
+        <v>1.992133017717996</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.581451057519577</v>
+        <v>-2.494170910233894</v>
       </c>
       <c r="G41" t="n">
-        <v>0.7519523339113345</v>
+        <v>0.724786337896806</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.186621637350377</v>
       </c>
       <c r="E42" t="n">
-        <v>1.730146979092224</v>
+        <v>1.741261128107728</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.46160130657594</v>
+        <v>-2.385432160267517</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6802368747066326</v>
+        <v>0.6491185166785181</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.085222766856089</v>
       </c>
       <c r="E43" t="n">
-        <v>1.470407065752548</v>
+        <v>1.487178239490007</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.355142523306768</v>
+        <v>-2.27972890617657</v>
       </c>
       <c r="G43" t="n">
-        <v>0.609774334722486</v>
+        <v>0.5816812414455114</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.9898576023786594</v>
       </c>
       <c r="E44" t="n">
-        <v>1.22442250551392</v>
+        <v>1.252276347884456</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.280977890349322</v>
+        <v>-2.208943692272556</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5720293561936955</v>
+        <v>0.5389843987611089</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.9008700841976833</v>
       </c>
       <c r="E45" t="n">
-        <v>1.016655129540471</v>
+        <v>1.042368305906039</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.237697086570917</v>
+        <v>-2.163042933666746</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4809298515101756</v>
+        <v>0.454920759549803</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.8173594596678747</v>
       </c>
       <c r="E46" t="n">
-        <v>0.82575336845176</v>
+        <v>0.8538071112507021</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.171271905632906</v>
+        <v>-2.095120860544379</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3985834671602088</v>
+        <v>0.3770398674469663</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.7392894408933036</v>
       </c>
       <c r="E47" t="n">
-        <v>0.6473398750714482</v>
+        <v>0.6747293818012015</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.10816711803128</v>
+        <v>-2.023107911725751</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3632640520973427</v>
+        <v>0.3473381266280223</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.6653282259084327</v>
       </c>
       <c r="E48" t="n">
-        <v>0.4875391578005172</v>
+        <v>0.5147649665416552</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.044879744211582</v>
+        <v>-1.956367926963481</v>
       </c>
       <c r="G48" t="n">
-        <v>0.3068527808090474</v>
+        <v>0.285765646640982</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.5963783763924414</v>
       </c>
       <c r="E49" t="n">
-        <v>0.3834288110603258</v>
+        <v>0.4090475462786158</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.012709941410439</v>
+        <v>-1.924547556407266</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2662855859957647</v>
+        <v>0.2473957825210352</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.5336972184342762</v>
       </c>
       <c r="E50" t="n">
-        <v>0.2791264339873357</v>
+        <v>0.310709127656234</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.939754155138152</v>
+        <v>-1.848587754641977</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2311786635142742</v>
+        <v>0.2105338287192944</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.4775063431412207</v>
       </c>
       <c r="E51" t="n">
-        <v>0.1966588501650288</v>
+        <v>0.2244686200001694</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.895040206949803</v>
+        <v>-1.810401263749662</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1853621149314538</v>
+        <v>0.1616935894044553</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.429654246510442</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1033147942145341</v>
+        <v>0.1331267163719692</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.860331511306001</v>
+        <v>-1.77632217575438</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1432271970733557</v>
+        <v>0.1192501637985823</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.3883864862411491</v>
       </c>
       <c r="E53" t="n">
-        <v>0.06658033596161866</v>
+        <v>0.08962240187833943</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.829492541671918</v>
+        <v>-1.74158986982376</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0881538420381659</v>
+        <v>0.06858248828391314</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.3523495692824796</v>
       </c>
       <c r="E54" t="n">
-        <v>0.04992878767737869</v>
+        <v>0.05878894131118027</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.822909206697078</v>
+        <v>-1.736647449782875</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05930994164033079</v>
+        <v>0.03845576230221798</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.3204181322401303</v>
       </c>
       <c r="E55" t="n">
-        <v>0.009501680565891827</v>
+        <v>0.01389319391432075</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.805930262435607</v>
+        <v>-1.721561263514769</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02939728225913252</v>
+        <v>0.004438061052667515</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.2915496043557976</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.04887554060490808</v>
+        <v>-0.05340556763601146</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.850312092589362</v>
+        <v>-1.75389791234277</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.01568419939404048</v>
+        <v>-0.03847599627047444</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.2661589862127072</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.05515587689889782</v>
+        <v>-0.06513043607058028</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.876308592396764</v>
+        <v>-1.776514206087179</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.02778840643684277</v>
+        <v>-0.05173238531006883</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.2439280736186849</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1465387050242519</v>
+        <v>-0.1658676598338243</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.863509455911907</v>
+        <v>-1.769556254561469</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.05255087525314519</v>
+        <v>-0.08223844989999746</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.2248346376224103</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.2055911803980898</v>
+        <v>-0.2237978595741748</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.905962325632508</v>
+        <v>-1.798101091326257</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.0985972306276755</v>
+        <v>-0.131536728779135</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.2086638562957513</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.2817548176395874</v>
+        <v>-0.3116422927148449</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.927770360558129</v>
+        <v>-1.812629287815863</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1103567274829129</v>
+        <v>-0.1405653024589157</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.1941956259505263</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.330105537007702</v>
+        <v>-0.3602605953335806</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.989216919015466</v>
+        <v>-1.867434272590871</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1305388006562304</v>
+        <v>-0.163568017897604</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.1822730616097737</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.4138653905285968</v>
+        <v>-0.4436159259403011</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.038685978969264</v>
+        <v>-1.916917498716761</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1462994541178141</v>
+        <v>-0.1813119354520266</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.1716350339471777</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.4765192216519706</v>
+        <v>-0.5061517056295773</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.088173140142958</v>
+        <v>-1.961633020924232</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.182020244056612</v>
+        <v>-0.2219987557185281</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.1620697288933129</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.5473500821105016</v>
+        <v>-0.573881748419146</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.150297313832014</v>
+        <v>-2.016239679289956</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2291086000894433</v>
+        <v>-0.2641069152515642</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.1526159211958781</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.6321865647103661</v>
+        <v>-0.6590157206329363</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.174285365240637</v>
+        <v>-2.040914790045026</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2443860296807878</v>
+        <v>-0.285537185588073</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.1424672343505552</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.7142779579626821</v>
+        <v>-0.7403122342289955</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.195274123213621</v>
+        <v>-2.072139394363828</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2913437421265512</v>
+        <v>-0.331775571295402</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.130710436352719</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.7576122783912114</v>
+        <v>-0.792939563549684</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.196530977481979</v>
+        <v>-2.07654586089391</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.330425062889326</v>
+        <v>-0.3667912006678571</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.1170938241039898</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.8116310406151297</v>
+        <v>-0.8465325536012904</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.235911361877801</v>
+        <v>-2.113997284856578</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.359064340801392</v>
+        <v>-0.3954493668093787</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.1016531225626899</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.8250763119492801</v>
+        <v>-0.8666831463921819</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.288035792089234</v>
+        <v>-2.169301233693038</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3726481258182169</v>
+        <v>-0.4028378125647641</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.08523949016912692</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.8363439278291112</v>
+        <v>-0.8851605568571307</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.292893215097568</v>
+        <v>-2.173286650108171</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4309797004344991</v>
+        <v>-0.4549063650973909</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.06918269018563593</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.7795635490568708</v>
+        <v>-0.8523650814552701</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.275629373375142</v>
+        <v>-2.167238481634573</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4429091913548371</v>
+        <v>-0.4631526512738852</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.05525855745820716</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.7626507135984949</v>
+        <v>-0.840402536133385</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.301514904834492</v>
+        <v>-2.200580141671525</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.448714173874194</v>
+        <v>-0.4650713805827508</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.04439798001832177</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.6267152742447248</v>
+        <v>-0.7147800700623771</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.31103535948968</v>
+        <v>-2.194096756910888</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4597511959527544</v>
+        <v>-0.4772558626007394</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.03729390450702845</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.4817166327905055</v>
+        <v>-0.5821547929207024</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.348781125028031</v>
+        <v>-2.234201190102508</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4806525958645063</v>
+        <v>-0.4955349466564042</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.03486766101827138</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.3519088498759591</v>
+        <v>-0.4598598032721242</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.331612511462444</v>
+        <v>-2.219349532683475</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4761902516556188</v>
+        <v>-0.489550525957219</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.03738852747798608</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.1983302301915297</v>
+        <v>-0.3053997328797664</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.323785701381776</v>
+        <v>-2.20813700747289</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4842649697478913</v>
+        <v>-0.489859033704994</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.04435840879743683</v>
       </c>
       <c r="E77" t="n">
-        <v>0.01761732315531817</v>
+        <v>-0.1068293506320781</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.285037285663156</v>
+        <v>-2.170148055980298</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4558728128378695</v>
+        <v>-0.4620728741566729</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.05543436868834999</v>
       </c>
       <c r="E78" t="n">
-        <v>0.205988061496978</v>
+        <v>0.08003819944873955</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.31034593911455</v>
+        <v>-2.188575884842925</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4348832678553248</v>
+        <v>-0.4358764739208656</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.07007128866946088</v>
       </c>
       <c r="E79" t="n">
-        <v>0.4494652092753749</v>
+        <v>0.3101094263710185</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.237820647071939</v>
+        <v>-2.12370583479676</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4411195316139182</v>
+        <v>-0.4319744805191612</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.08740689400791601</v>
       </c>
       <c r="E80" t="n">
-        <v>0.6631083986286386</v>
+        <v>0.5169245207760798</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.131590883584916</v>
+        <v>-2.027676502225327</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3986934202183794</v>
+        <v>-0.3872314129770678</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.105856157000984</v>
       </c>
       <c r="E81" t="n">
-        <v>0.8838614323528174</v>
+        <v>0.738669186546678</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.109222497852112</v>
+        <v>-2.008216116819125</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3471804964355718</v>
+        <v>-0.3354005373317575</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.1232199364854968</v>
       </c>
       <c r="E82" t="n">
-        <v>1.130957250091084</v>
+        <v>0.985659545003818</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.995283188708958</v>
+        <v>-1.912826623020501</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2929854440700678</v>
+        <v>-0.283207637288548</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.1371589362339168</v>
       </c>
       <c r="E83" t="n">
-        <v>1.38365342786294</v>
+        <v>1.238513124687803</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.948229461096796</v>
+        <v>-1.865978304903668</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2815832495553657</v>
+        <v>-0.2581114764185298</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.1464430671735628</v>
       </c>
       <c r="E84" t="n">
-        <v>1.655110339541578</v>
+        <v>1.500236302120318</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.828259297690379</v>
+        <v>-1.762349608014594</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.230248189933265</v>
+        <v>-0.2027736861709615</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.1495118907895637</v>
       </c>
       <c r="E85" t="n">
-        <v>1.887306492277612</v>
+        <v>1.741876569584157</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.703096445202791</v>
+        <v>-1.650021307442092</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1908693795565644</v>
+        <v>-0.1651168527129639</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.1457250730196673</v>
       </c>
       <c r="E86" t="n">
-        <v>2.072417437019058</v>
+        <v>1.924867310569211</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.541264456255821</v>
+        <v>-1.500198297381086</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1599115714788225</v>
+        <v>-0.1259505349176389</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.1354965938513754</v>
       </c>
       <c r="E87" t="n">
-        <v>2.299076190486358</v>
+        <v>2.145639232522845</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.39828449432467</v>
+        <v>-1.365326107943755</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1437479691221857</v>
+        <v>-0.1072433176609802</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.1199654415956473</v>
       </c>
       <c r="E88" t="n">
-        <v>2.42193310496124</v>
+        <v>2.277359448669772</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.190513970312979</v>
+        <v>-1.179155848333673</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1185258867224635</v>
+        <v>-0.07740621119760435</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1015435281818864</v>
       </c>
       <c r="E89" t="n">
-        <v>2.530812729638972</v>
+        <v>2.388097989929761</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.9852280354842612</v>
+        <v>-0.9820500908783552</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1123698979390565</v>
+        <v>-0.06326364939271767</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.08109688094139199</v>
       </c>
       <c r="E90" t="n">
-        <v>2.603014560752156</v>
+        <v>2.459956684874501</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.8028747722433339</v>
+        <v>-0.8233700752217902</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.08167180301632922</v>
+        <v>-0.03846340411750403</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.05737463359259896</v>
       </c>
       <c r="E91" t="n">
-        <v>2.648407698191347</v>
+        <v>2.514173773507703</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.6393782580755889</v>
+        <v>-0.6587528594396791</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.1354371481617181</v>
+        <v>-0.08066757881693937</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.03008854371675153</v>
       </c>
       <c r="E92" t="n">
-        <v>2.677808801358122</v>
+        <v>2.551492192854621</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4288579226589858</v>
+        <v>-0.4561907647003723</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.09720894576268831</v>
+        <v>-0.0548725534570637</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.002599124326854386</v>
       </c>
       <c r="E93" t="n">
-        <v>2.635156031209116</v>
+        <v>2.523111054078448</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2908731104092823</v>
+        <v>-0.3185679768485679</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.10995377858786</v>
+        <v>-0.07265267345127627</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.04114140347196576</v>
       </c>
       <c r="E94" t="n">
-        <v>2.584003557805087</v>
+        <v>2.478358542421627</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.1232274818377887</v>
+        <v>-0.1499275681924122</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1312817376814843</v>
+        <v>-0.08816777992993716</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.08722768695342378</v>
       </c>
       <c r="E95" t="n">
-        <v>2.468788506164119</v>
+        <v>2.371537734754556</v>
       </c>
       <c r="F95" t="n">
-        <v>0.04117724136294687</v>
+        <v>0.01420957175770218</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1121416651664679</v>
+        <v>-0.07417002788421014</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1412984155161076</v>
       </c>
       <c r="E96" t="n">
-        <v>2.332223459161828</v>
+        <v>2.242213175710249</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1082005495670515</v>
+        <v>0.08384102964580201</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1512544663116687</v>
+        <v>-0.1169377014290711</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.2009991252872236</v>
       </c>
       <c r="E97" t="n">
-        <v>2.133760110214389</v>
+        <v>2.04044753464632</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1439874483089439</v>
+        <v>0.1271784981125738</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.182146165586316</v>
+        <v>-0.1442894316999132</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2639237032533395</v>
       </c>
       <c r="E98" t="n">
-        <v>1.962498959721267</v>
+        <v>1.868116051150714</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1830467328040205</v>
+        <v>0.1634313065143713</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1917665704557058</v>
+        <v>-0.1556853301381302</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.3239071204235505</v>
       </c>
       <c r="E99" t="n">
-        <v>1.809471246729293</v>
+        <v>1.714068373768137</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1996054139601037</v>
+        <v>0.1788598419413606</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.2260093564396023</v>
+        <v>-0.1864149054432835</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.375272230404224</v>
       </c>
       <c r="E100" t="n">
-        <v>1.602512916584194</v>
+        <v>1.515181613677068</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2084026068290532</v>
+        <v>0.1844098333630668</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.2508521002310911</v>
+        <v>-0.2132393393084898</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.4125994068202417</v>
       </c>
       <c r="E101" t="n">
-        <v>1.475292821105066</v>
+        <v>1.384591543259235</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2121975669305092</v>
+        <v>0.1786111469201951</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.2880682083351245</v>
+        <v>-0.249260766899456</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.4312621982194751</v>
       </c>
       <c r="E102" t="n">
-        <v>1.285230012208008</v>
+        <v>1.212825132628176</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2113035240696104</v>
+        <v>0.1809564354109331</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.279669242303864</v>
+        <v>-0.2395112924621196</v>
       </c>
     </row>
   </sheetData>
